--- a/xlsx/IEEE_intext.xlsx
+++ b/xlsx/IEEE_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t>IEEE</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_IEEE</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_IEEE</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Institute_of_Electrical_Engineers</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>會議</t>
+    <t>会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>標準組織</t>
+    <t>标准组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%83%BD</t>
@@ -185,9 +185,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
-    <t>纽约州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
   </si>
   <si>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87%C2%B7%E6%9C%97%E7%B9%86%E7%88%BE</t>
   </si>
   <si>
-    <t>歐文·朗繆爾</t>
+    <t>欧文·朗缪尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%C2%B7%E5%BE%B7%E5%AF%8C%E9%9B%B7%E6%96%AF%E7%89%B9</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A6%E5%88%97%E5%9F%A0</t>
   </si>
   <si>
-    <t>並列埠</t>
+    <t>并列埠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B6%E5%8F%A3</t>
@@ -503,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/IP%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>IP電話</t>
+    <t>IP电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線區域網路</t>
+    <t>无线区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%BA%BF%E7%94%B5%E8%A7%86</t>
@@ -527,19 +524,19 @@
     <t>https://zh.wikipedia.org/wiki/IEEE%E6%A6%AE%E8%AD%BD%E7%8D%8E%E7%AB%A0</t>
   </si>
   <si>
-    <t>IEEE榮譽獎章</t>
+    <t>IEEE荣誉奖章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IEEE%E6%84%9B%E8%BF%AA%E7%94%9F%E7%8D%8E%E7%AB%A0</t>
   </si>
   <si>
-    <t>IEEE愛迪生獎章</t>
+    <t>IEEE爱迪生奖章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IEEE%E8%A5%BF%E6%BE%A4%E6%BD%A4%E4%B8%80%E7%8D%8E</t>
   </si>
   <si>
-    <t>IEEE西澤潤一獎</t>
+    <t>IEEE西泽润一奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IEEE%E7%BA%A6%E7%BF%B0%C2%B7%E5%86%AF%C2%B7%E8%AF%BA%E4%BE%9D%E6%9B%BC%E5%A5%96</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
   </si>
   <si>
-    <t>貝爾獎</t>
+    <t>贝尔奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Institution_of_Electrical_Engineers</t>
@@ -569,19 +566,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>工程倫理</t>
+    <t>工程伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:IEEE%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>Template talk-IEEE標準</t>
+    <t>Template talk-IEEE标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E9%9B%BB%E5%AD%90%E5%B7%A5%E7%A8%8B%E5%B8%AB%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>電機電子工程師學會</t>
+    <t>电机电子工程师学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IEEE-488</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80UNIX%E8%A6%8F%E7%AF%84</t>
   </si>
   <si>
-    <t>單一UNIX規範</t>
+    <t>单一UNIX规范</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E5%BB%B6%E8%BF%9F%E6%A0%BC%E5%BC%8F</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>通訊衛星</t>
+    <t>通讯卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%BD%91%E7%BB%9C</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%9C%9F</t>
   </si>
   <si>
-    <t>傳真</t>
+    <t>传真</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Heliograph</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_mobile_phones</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>光通訊</t>
+    <t>光通讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semaphore_line</t>
@@ -893,25 +890,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>海底電纜</t>
+    <t>海底电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>視訊會議</t>
+    <t>视讯会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>視訊電話</t>
+    <t>视讯电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B8%A9%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claude_Chappe</t>
@@ -959,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%BE%85%C2%B7%E6%B3%95%E6%81%A9%E6%96%AF%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>費羅·法恩斯沃斯</t>
+    <t>费罗·法恩斯沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E4%BF%A1%E9%81%94</t>
   </si>
   <si>
-    <t>范信達</t>
+    <t>范信达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elisha_Gray</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%8B%93%E6%92%B2</t>
   </si>
   <si>
-    <t>網絡拓撲</t>
+    <t>网络拓扑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Telecommunications_link</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>同軸電纜</t>
+    <t>同轴电缆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free-space_optical_communication</t>
@@ -1067,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B0%8E%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>光導纖維</t>
+    <t>光导纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E9%A0%BB%E8%AD%9C</t>
   </si>
   <si>
-    <t>無線電頻譜</t>
+    <t>无线电频谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%B7%9A</t>
   </si>
   <si>
-    <t>電話線</t>
+    <t>电话线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2</t>
@@ -1097,19 +1094,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%8C%85%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>封包交換</t>
+    <t>封包交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>電信交換</t>
+    <t>电信交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%BA%A4%E6%8F%9B%E5%99%A8</t>
   </si>
   <si>
-    <t>網路交換器</t>
+    <t>网路交换器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%B7%AF%E5%A4%8D%E7%94%A8</t>
@@ -1187,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISDN</t>
@@ -1199,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域網路</t>
+    <t>区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E7%94%B5%E8%AF%9D</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E4%B8%80%E4%BB%A3%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>下一代網絡</t>
+    <t>下一代网络</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NPL_network</t>
@@ -1229,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播聯播網</t>
+    <t>广播联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>通訊裝置</t>
+    <t>通讯装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視聯播網</t>
+    <t>电视联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Telex</t>
@@ -1253,25 +1250,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>廣域網路</t>
+    <t>广域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線網路</t>
+    <t>无线网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1289,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1307,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1325,13 +1322,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2506,7 +2503,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2532,10 +2529,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2561,10 +2558,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2590,10 +2587,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -2619,10 +2616,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2648,10 +2645,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2677,10 +2674,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2706,10 +2703,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2735,10 +2732,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2764,10 +2761,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2793,10 +2790,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2822,10 +2819,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2851,10 +2848,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2880,10 +2877,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2909,10 +2906,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2938,10 +2935,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2967,10 +2964,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2996,10 +2993,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3025,10 +3022,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>32</v>
@@ -3054,10 +3051,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -3083,10 +3080,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3112,10 +3109,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -3141,10 +3138,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3170,10 +3167,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3199,10 +3196,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3228,10 +3225,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3257,10 +3254,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3286,10 +3283,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3315,10 +3312,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3344,10 +3341,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3373,10 +3370,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3402,10 +3399,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3431,10 +3428,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3460,10 +3457,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3489,10 +3486,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3518,10 +3515,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3547,10 +3544,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3576,10 +3573,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3605,10 +3602,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3634,10 +3631,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3663,10 +3660,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3692,10 +3689,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3721,10 +3718,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3750,10 +3747,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3779,10 +3776,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3808,10 +3805,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>19</v>
@@ -3837,10 +3834,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3866,10 +3863,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3895,10 +3892,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3924,10 +3921,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3953,10 +3950,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3982,10 +3979,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -4011,10 +4008,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4040,10 +4037,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4069,10 +4066,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
         <v>151</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4098,10 +4095,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
         <v>155</v>
-      </c>
-      <c r="F83" t="s">
-        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4127,10 +4124,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
         <v>157</v>
-      </c>
-      <c r="F84" t="s">
-        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4156,10 +4153,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F85" t="s">
         <v>159</v>
-      </c>
-      <c r="F85" t="s">
-        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4185,10 +4182,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" t="s">
         <v>161</v>
-      </c>
-      <c r="F86" t="s">
-        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4214,10 +4211,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" t="s">
-        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4243,10 +4240,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4272,10 +4269,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4301,10 +4298,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
         <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4330,10 +4327,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
         <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4359,10 +4356,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" t="s">
         <v>173</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4388,10 +4385,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" t="s">
         <v>175</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4417,10 +4414,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" t="s">
-        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4446,10 +4443,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4475,10 +4472,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4504,10 +4501,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" t="s">
         <v>183</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4533,10 +4530,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
         <v>185</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>6</v>
@@ -4562,10 +4559,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4591,10 +4588,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4620,10 +4617,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" t="s">
         <v>87</v>
-      </c>
-      <c r="F101" t="s">
-        <v>88</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4649,10 +4646,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" t="s">
         <v>101</v>
-      </c>
-      <c r="F102" t="s">
-        <v>102</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4678,10 +4675,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" t="s">
         <v>191</v>
-      </c>
-      <c r="F103" t="s">
-        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4707,10 +4704,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" t="s">
         <v>115</v>
-      </c>
-      <c r="F104" t="s">
-        <v>116</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4736,10 +4733,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" t="s">
         <v>127</v>
-      </c>
-      <c r="F105" t="s">
-        <v>128</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4765,10 +4762,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>128</v>
+      </c>
+      <c r="F106" t="s">
         <v>129</v>
-      </c>
-      <c r="F106" t="s">
-        <v>130</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4794,10 +4791,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" t="s">
         <v>193</v>
-      </c>
-      <c r="F107" t="s">
-        <v>194</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4823,10 +4820,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>194</v>
+      </c>
+      <c r="F108" t="s">
         <v>195</v>
-      </c>
-      <c r="F108" t="s">
-        <v>196</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4852,10 +4849,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>196</v>
+      </c>
+      <c r="F109" t="s">
         <v>197</v>
-      </c>
-      <c r="F109" t="s">
-        <v>198</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4881,10 +4878,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" t="s">
         <v>91</v>
-      </c>
-      <c r="F110" t="s">
-        <v>92</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4910,10 +4907,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" t="s">
         <v>137</v>
-      </c>
-      <c r="F111" t="s">
-        <v>138</v>
       </c>
       <c r="G111" t="n">
         <v>21</v>
@@ -4939,10 +4936,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>198</v>
+      </c>
+      <c r="F112" t="s">
         <v>199</v>
-      </c>
-      <c r="F112" t="s">
-        <v>200</v>
       </c>
       <c r="G112" t="n">
         <v>14</v>
@@ -4968,10 +4965,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>200</v>
+      </c>
+      <c r="F113" t="s">
         <v>201</v>
-      </c>
-      <c r="F113" t="s">
-        <v>202</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -4997,10 +4994,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114" t="s">
         <v>143</v>
-      </c>
-      <c r="F114" t="s">
-        <v>144</v>
       </c>
       <c r="G114" t="n">
         <v>59</v>
@@ -5026,10 +5023,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" t="s">
         <v>203</v>
-      </c>
-      <c r="F115" t="s">
-        <v>204</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5055,10 +5052,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" t="s">
         <v>205</v>
-      </c>
-      <c r="F116" t="s">
-        <v>206</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -5084,10 +5081,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>206</v>
+      </c>
+      <c r="F117" t="s">
         <v>207</v>
-      </c>
-      <c r="F117" t="s">
-        <v>208</v>
       </c>
       <c r="G117" t="n">
         <v>9</v>
@@ -5113,10 +5110,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" t="s">
         <v>209</v>
-      </c>
-      <c r="F118" t="s">
-        <v>210</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
@@ -5142,10 +5139,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>154</v>
+      </c>
+      <c r="F119" t="s">
         <v>155</v>
-      </c>
-      <c r="F119" t="s">
-        <v>156</v>
       </c>
       <c r="G119" t="n">
         <v>8</v>
@@ -5171,10 +5168,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>96</v>
+      </c>
+      <c r="F120" t="s">
         <v>97</v>
-      </c>
-      <c r="F120" t="s">
-        <v>98</v>
       </c>
       <c r="G120" t="n">
         <v>7</v>
@@ -5200,10 +5197,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>210</v>
+      </c>
+      <c r="F121" t="s">
         <v>211</v>
-      </c>
-      <c r="F121" t="s">
-        <v>212</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5229,10 +5226,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>212</v>
+      </c>
+      <c r="F122" t="s">
         <v>213</v>
-      </c>
-      <c r="F122" t="s">
-        <v>214</v>
       </c>
       <c r="G122" t="n">
         <v>443</v>
@@ -5258,10 +5255,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>214</v>
+      </c>
+      <c r="F123" t="s">
         <v>215</v>
-      </c>
-      <c r="F123" t="s">
-        <v>216</v>
       </c>
       <c r="G123" t="n">
         <v>58</v>
@@ -5287,10 +5284,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>216</v>
+      </c>
+      <c r="F124" t="s">
         <v>217</v>
-      </c>
-      <c r="F124" t="s">
-        <v>218</v>
       </c>
       <c r="G124" t="n">
         <v>205</v>
@@ -5316,10 +5313,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>218</v>
+      </c>
+      <c r="F125" t="s">
         <v>219</v>
-      </c>
-      <c r="F125" t="s">
-        <v>220</v>
       </c>
       <c r="G125" t="n">
         <v>353</v>
@@ -5345,10 +5342,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>220</v>
+      </c>
+      <c r="F126" t="s">
         <v>221</v>
-      </c>
-      <c r="F126" t="s">
-        <v>222</v>
       </c>
       <c r="G126" t="n">
         <v>163</v>
@@ -5374,10 +5371,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>222</v>
+      </c>
+      <c r="F127" t="s">
         <v>223</v>
-      </c>
-      <c r="F127" t="s">
-        <v>224</v>
       </c>
       <c r="G127" t="n">
         <v>324</v>
@@ -5403,10 +5400,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>224</v>
+      </c>
+      <c r="F128" t="s">
         <v>225</v>
-      </c>
-      <c r="F128" t="s">
-        <v>226</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5432,10 +5429,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>226</v>
+      </c>
+      <c r="F129" t="s">
         <v>227</v>
-      </c>
-      <c r="F129" t="s">
-        <v>228</v>
       </c>
       <c r="G129" t="n">
         <v>26</v>
@@ -5461,10 +5458,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>228</v>
+      </c>
+      <c r="F130" t="s">
         <v>229</v>
-      </c>
-      <c r="F130" t="s">
-        <v>230</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5490,10 +5487,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>230</v>
+      </c>
+      <c r="F131" t="s">
         <v>231</v>
-      </c>
-      <c r="F131" t="s">
-        <v>232</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5519,10 +5516,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>232</v>
+      </c>
+      <c r="F132" t="s">
         <v>233</v>
-      </c>
-      <c r="F132" t="s">
-        <v>234</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -5548,10 +5545,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>234</v>
+      </c>
+      <c r="F133" t="s">
         <v>235</v>
-      </c>
-      <c r="F133" t="s">
-        <v>236</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5577,10 +5574,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>236</v>
+      </c>
+      <c r="F134" t="s">
         <v>237</v>
-      </c>
-      <c r="F134" t="s">
-        <v>238</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5606,10 +5603,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>166</v>
+      </c>
+      <c r="F135" t="s">
         <v>167</v>
-      </c>
-      <c r="F135" t="s">
-        <v>168</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -5635,10 +5632,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>98</v>
+      </c>
+      <c r="F136" t="s">
         <v>99</v>
-      </c>
-      <c r="F136" t="s">
-        <v>100</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5664,10 +5661,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>238</v>
+      </c>
+      <c r="F137" t="s">
         <v>239</v>
-      </c>
-      <c r="F137" t="s">
-        <v>240</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5693,10 +5690,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>130</v>
+      </c>
+      <c r="F138" t="s">
         <v>131</v>
-      </c>
-      <c r="F138" t="s">
-        <v>132</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5722,10 +5719,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>240</v>
+      </c>
+      <c r="F139" t="s">
         <v>241</v>
-      </c>
-      <c r="F139" t="s">
-        <v>242</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5751,10 +5748,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" t="s">
         <v>243</v>
-      </c>
-      <c r="F140" t="s">
-        <v>244</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -5780,10 +5777,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>244</v>
+      </c>
+      <c r="F141" t="s">
         <v>245</v>
-      </c>
-      <c r="F141" t="s">
-        <v>246</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5809,10 +5806,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>246</v>
+      </c>
+      <c r="F142" t="s">
         <v>247</v>
-      </c>
-      <c r="F142" t="s">
-        <v>248</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5838,10 +5835,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>248</v>
+      </c>
+      <c r="F143" t="s">
         <v>249</v>
-      </c>
-      <c r="F143" t="s">
-        <v>250</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5867,10 +5864,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>250</v>
+      </c>
+      <c r="F144" t="s">
         <v>251</v>
-      </c>
-      <c r="F144" t="s">
-        <v>252</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5896,10 +5893,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>252</v>
+      </c>
+      <c r="F145" t="s">
         <v>253</v>
-      </c>
-      <c r="F145" t="s">
-        <v>254</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5925,10 +5922,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>254</v>
+      </c>
+      <c r="F146" t="s">
         <v>255</v>
-      </c>
-      <c r="F146" t="s">
-        <v>256</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5954,10 +5951,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>80</v>
+      </c>
+      <c r="F147" t="s">
         <v>81</v>
-      </c>
-      <c r="F147" t="s">
-        <v>82</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5983,10 +5980,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>256</v>
+      </c>
+      <c r="F148" t="s">
         <v>257</v>
-      </c>
-      <c r="F148" t="s">
-        <v>258</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6012,10 +6009,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>258</v>
+      </c>
+      <c r="F149" t="s">
         <v>259</v>
-      </c>
-      <c r="F149" t="s">
-        <v>260</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6041,10 +6038,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>260</v>
+      </c>
+      <c r="F150" t="s">
         <v>261</v>
-      </c>
-      <c r="F150" t="s">
-        <v>262</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6070,10 +6067,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>262</v>
+      </c>
+      <c r="F151" t="s">
         <v>263</v>
-      </c>
-      <c r="F151" t="s">
-        <v>264</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6099,10 +6096,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>264</v>
+      </c>
+      <c r="F152" t="s">
         <v>265</v>
-      </c>
-      <c r="F152" t="s">
-        <v>266</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6128,10 +6125,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>266</v>
+      </c>
+      <c r="F153" t="s">
         <v>267</v>
-      </c>
-      <c r="F153" t="s">
-        <v>268</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6157,10 +6154,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>268</v>
+      </c>
+      <c r="F154" t="s">
         <v>269</v>
-      </c>
-      <c r="F154" t="s">
-        <v>270</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6186,10 +6183,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>270</v>
+      </c>
+      <c r="F155" t="s">
         <v>271</v>
-      </c>
-      <c r="F155" t="s">
-        <v>272</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6215,10 +6212,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>272</v>
+      </c>
+      <c r="F156" t="s">
         <v>273</v>
-      </c>
-      <c r="F156" t="s">
-        <v>274</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6244,10 +6241,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>274</v>
+      </c>
+      <c r="F157" t="s">
         <v>275</v>
-      </c>
-      <c r="F157" t="s">
-        <v>276</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6273,10 +6270,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>276</v>
+      </c>
+      <c r="F158" t="s">
         <v>277</v>
-      </c>
-      <c r="F158" t="s">
-        <v>278</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6302,10 +6299,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F159" t="s">
         <v>279</v>
-      </c>
-      <c r="F159" t="s">
-        <v>280</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6331,10 +6328,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>280</v>
+      </c>
+      <c r="F160" t="s">
         <v>281</v>
-      </c>
-      <c r="F160" t="s">
-        <v>282</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6360,10 +6357,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>282</v>
+      </c>
+      <c r="F161" t="s">
         <v>283</v>
-      </c>
-      <c r="F161" t="s">
-        <v>284</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6389,10 +6386,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>284</v>
+      </c>
+      <c r="F162" t="s">
         <v>285</v>
-      </c>
-      <c r="F162" t="s">
-        <v>286</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6418,10 +6415,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>286</v>
+      </c>
+      <c r="F163" t="s">
         <v>287</v>
-      </c>
-      <c r="F163" t="s">
-        <v>288</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6447,10 +6444,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>288</v>
+      </c>
+      <c r="F164" t="s">
         <v>289</v>
-      </c>
-      <c r="F164" t="s">
-        <v>290</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6476,10 +6473,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>290</v>
+      </c>
+      <c r="F165" t="s">
         <v>291</v>
-      </c>
-      <c r="F165" t="s">
-        <v>292</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6505,10 +6502,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>292</v>
+      </c>
+      <c r="F166" t="s">
         <v>293</v>
-      </c>
-      <c r="F166" t="s">
-        <v>294</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6534,10 +6531,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>294</v>
+      </c>
+      <c r="F167" t="s">
         <v>295</v>
-      </c>
-      <c r="F167" t="s">
-        <v>296</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6563,10 +6560,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>296</v>
+      </c>
+      <c r="F168" t="s">
         <v>297</v>
-      </c>
-      <c r="F168" t="s">
-        <v>298</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6592,10 +6589,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>298</v>
+      </c>
+      <c r="F169" t="s">
         <v>299</v>
-      </c>
-      <c r="F169" t="s">
-        <v>300</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6621,10 +6618,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>300</v>
+      </c>
+      <c r="F170" t="s">
         <v>301</v>
-      </c>
-      <c r="F170" t="s">
-        <v>302</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6650,10 +6647,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>302</v>
+      </c>
+      <c r="F171" t="s">
         <v>303</v>
-      </c>
-      <c r="F171" t="s">
-        <v>304</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6679,10 +6676,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>304</v>
+      </c>
+      <c r="F172" t="s">
         <v>305</v>
-      </c>
-      <c r="F172" t="s">
-        <v>306</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6708,10 +6705,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>306</v>
+      </c>
+      <c r="F173" t="s">
         <v>307</v>
-      </c>
-      <c r="F173" t="s">
-        <v>308</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6737,10 +6734,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>308</v>
+      </c>
+      <c r="F174" t="s">
         <v>309</v>
-      </c>
-      <c r="F174" t="s">
-        <v>310</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6766,10 +6763,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>310</v>
+      </c>
+      <c r="F175" t="s">
         <v>311</v>
-      </c>
-      <c r="F175" t="s">
-        <v>312</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6795,10 +6792,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>312</v>
+      </c>
+      <c r="F176" t="s">
         <v>313</v>
-      </c>
-      <c r="F176" t="s">
-        <v>314</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6824,10 +6821,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>314</v>
+      </c>
+      <c r="F177" t="s">
         <v>315</v>
-      </c>
-      <c r="F177" t="s">
-        <v>316</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6853,10 +6850,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>316</v>
+      </c>
+      <c r="F178" t="s">
         <v>317</v>
-      </c>
-      <c r="F178" t="s">
-        <v>318</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6882,10 +6879,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>318</v>
+      </c>
+      <c r="F179" t="s">
         <v>319</v>
-      </c>
-      <c r="F179" t="s">
-        <v>320</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6911,10 +6908,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>320</v>
+      </c>
+      <c r="F180" t="s">
         <v>321</v>
-      </c>
-      <c r="F180" t="s">
-        <v>322</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6940,10 +6937,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>322</v>
+      </c>
+      <c r="F181" t="s">
         <v>323</v>
-      </c>
-      <c r="F181" t="s">
-        <v>324</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6969,10 +6966,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>324</v>
+      </c>
+      <c r="F182" t="s">
         <v>325</v>
-      </c>
-      <c r="F182" t="s">
-        <v>326</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6998,10 +6995,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183" t="s">
         <v>327</v>
-      </c>
-      <c r="F183" t="s">
-        <v>328</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7027,10 +7024,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>328</v>
+      </c>
+      <c r="F184" t="s">
         <v>329</v>
-      </c>
-      <c r="F184" t="s">
-        <v>330</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7056,10 +7053,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>330</v>
+      </c>
+      <c r="F185" t="s">
         <v>331</v>
-      </c>
-      <c r="F185" t="s">
-        <v>332</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7085,10 +7082,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>332</v>
+      </c>
+      <c r="F186" t="s">
         <v>333</v>
-      </c>
-      <c r="F186" t="s">
-        <v>334</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7114,10 +7111,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>334</v>
+      </c>
+      <c r="F187" t="s">
         <v>335</v>
-      </c>
-      <c r="F187" t="s">
-        <v>336</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7143,10 +7140,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>336</v>
+      </c>
+      <c r="F188" t="s">
         <v>337</v>
-      </c>
-      <c r="F188" t="s">
-        <v>338</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7172,10 +7169,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>338</v>
+      </c>
+      <c r="F189" t="s">
         <v>339</v>
-      </c>
-      <c r="F189" t="s">
-        <v>340</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7201,10 +7198,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>340</v>
+      </c>
+      <c r="F190" t="s">
         <v>341</v>
-      </c>
-      <c r="F190" t="s">
-        <v>342</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7230,10 +7227,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>342</v>
+      </c>
+      <c r="F191" t="s">
         <v>343</v>
-      </c>
-      <c r="F191" t="s">
-        <v>344</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7259,10 +7256,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>344</v>
+      </c>
+      <c r="F192" t="s">
         <v>345</v>
-      </c>
-      <c r="F192" t="s">
-        <v>346</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7288,10 +7285,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>346</v>
+      </c>
+      <c r="F193" t="s">
         <v>347</v>
-      </c>
-      <c r="F193" t="s">
-        <v>348</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7317,10 +7314,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>348</v>
+      </c>
+      <c r="F194" t="s">
         <v>349</v>
-      </c>
-      <c r="F194" t="s">
-        <v>350</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7346,10 +7343,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>350</v>
+      </c>
+      <c r="F195" t="s">
         <v>351</v>
-      </c>
-      <c r="F195" t="s">
-        <v>352</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7375,10 +7372,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>352</v>
+      </c>
+      <c r="F196" t="s">
         <v>353</v>
-      </c>
-      <c r="F196" t="s">
-        <v>354</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7404,10 +7401,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>354</v>
+      </c>
+      <c r="F197" t="s">
         <v>355</v>
-      </c>
-      <c r="F197" t="s">
-        <v>356</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7433,10 +7430,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>356</v>
+      </c>
+      <c r="F198" t="s">
         <v>357</v>
-      </c>
-      <c r="F198" t="s">
-        <v>358</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7462,10 +7459,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>358</v>
+      </c>
+      <c r="F199" t="s">
         <v>359</v>
-      </c>
-      <c r="F199" t="s">
-        <v>360</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7491,10 +7488,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>360</v>
+      </c>
+      <c r="F200" t="s">
         <v>361</v>
-      </c>
-      <c r="F200" t="s">
-        <v>362</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7520,10 +7517,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>362</v>
+      </c>
+      <c r="F201" t="s">
         <v>363</v>
-      </c>
-      <c r="F201" t="s">
-        <v>364</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7549,10 +7546,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>364</v>
+      </c>
+      <c r="F202" t="s">
         <v>365</v>
-      </c>
-      <c r="F202" t="s">
-        <v>366</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7578,10 +7575,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>366</v>
+      </c>
+      <c r="F203" t="s">
         <v>367</v>
-      </c>
-      <c r="F203" t="s">
-        <v>368</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7607,10 +7604,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>368</v>
+      </c>
+      <c r="F204" t="s">
         <v>369</v>
-      </c>
-      <c r="F204" t="s">
-        <v>370</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7636,10 +7633,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>370</v>
+      </c>
+      <c r="F205" t="s">
         <v>371</v>
-      </c>
-      <c r="F205" t="s">
-        <v>372</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7665,10 +7662,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>372</v>
+      </c>
+      <c r="F206" t="s">
         <v>373</v>
-      </c>
-      <c r="F206" t="s">
-        <v>374</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7694,10 +7691,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>374</v>
+      </c>
+      <c r="F207" t="s">
         <v>375</v>
-      </c>
-      <c r="F207" t="s">
-        <v>376</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7723,10 +7720,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>376</v>
+      </c>
+      <c r="F208" t="s">
         <v>377</v>
-      </c>
-      <c r="F208" t="s">
-        <v>378</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7752,10 +7749,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>378</v>
+      </c>
+      <c r="F209" t="s">
         <v>379</v>
-      </c>
-      <c r="F209" t="s">
-        <v>380</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7781,10 +7778,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>380</v>
+      </c>
+      <c r="F210" t="s">
         <v>381</v>
-      </c>
-      <c r="F210" t="s">
-        <v>382</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7810,10 +7807,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>382</v>
+      </c>
+      <c r="F211" t="s">
         <v>383</v>
-      </c>
-      <c r="F211" t="s">
-        <v>384</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7839,10 +7836,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>384</v>
+      </c>
+      <c r="F212" t="s">
         <v>385</v>
-      </c>
-      <c r="F212" t="s">
-        <v>386</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7868,10 +7865,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>150</v>
+      </c>
+      <c r="F213" t="s">
         <v>151</v>
-      </c>
-      <c r="F213" t="s">
-        <v>152</v>
       </c>
       <c r="G213" t="n">
         <v>5</v>
@@ -7897,10 +7894,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>386</v>
+      </c>
+      <c r="F214" t="s">
         <v>387</v>
-      </c>
-      <c r="F214" t="s">
-        <v>388</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7926,10 +7923,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>388</v>
+      </c>
+      <c r="F215" t="s">
         <v>389</v>
-      </c>
-      <c r="F215" t="s">
-        <v>390</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -7955,10 +7952,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>390</v>
+      </c>
+      <c r="F216" t="s">
         <v>391</v>
-      </c>
-      <c r="F216" t="s">
-        <v>392</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7984,10 +7981,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>392</v>
+      </c>
+      <c r="F217" t="s">
         <v>393</v>
-      </c>
-      <c r="F217" t="s">
-        <v>394</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -8013,10 +8010,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>394</v>
+      </c>
+      <c r="F218" t="s">
         <v>395</v>
-      </c>
-      <c r="F218" t="s">
-        <v>396</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8042,10 +8039,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>396</v>
+      </c>
+      <c r="F219" t="s">
         <v>397</v>
-      </c>
-      <c r="F219" t="s">
-        <v>398</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8071,10 +8068,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>398</v>
+      </c>
+      <c r="F220" t="s">
         <v>399</v>
-      </c>
-      <c r="F220" t="s">
-        <v>400</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8100,10 +8097,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>400</v>
+      </c>
+      <c r="F221" t="s">
         <v>401</v>
-      </c>
-      <c r="F221" t="s">
-        <v>402</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8129,10 +8126,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>402</v>
+      </c>
+      <c r="F222" t="s">
         <v>403</v>
-      </c>
-      <c r="F222" t="s">
-        <v>404</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8158,10 +8155,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>404</v>
+      </c>
+      <c r="F223" t="s">
         <v>405</v>
-      </c>
-      <c r="F223" t="s">
-        <v>406</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8187,10 +8184,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>406</v>
+      </c>
+      <c r="F224" t="s">
         <v>407</v>
-      </c>
-      <c r="F224" t="s">
-        <v>408</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8216,10 +8213,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>408</v>
+      </c>
+      <c r="F225" t="s">
         <v>409</v>
-      </c>
-      <c r="F225" t="s">
-        <v>410</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8245,10 +8242,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>410</v>
+      </c>
+      <c r="F226" t="s">
         <v>411</v>
-      </c>
-      <c r="F226" t="s">
-        <v>412</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8274,10 +8271,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>412</v>
+      </c>
+      <c r="F227" t="s">
         <v>413</v>
-      </c>
-      <c r="F227" t="s">
-        <v>414</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8303,10 +8300,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>414</v>
+      </c>
+      <c r="F228" t="s">
         <v>415</v>
-      </c>
-      <c r="F228" t="s">
-        <v>416</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8332,10 +8329,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>416</v>
+      </c>
+      <c r="F229" t="s">
         <v>417</v>
-      </c>
-      <c r="F229" t="s">
-        <v>418</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8361,10 +8358,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>418</v>
+      </c>
+      <c r="F230" t="s">
         <v>419</v>
-      </c>
-      <c r="F230" t="s">
-        <v>420</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8390,10 +8387,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>420</v>
+      </c>
+      <c r="F231" t="s">
         <v>421</v>
-      </c>
-      <c r="F231" t="s">
-        <v>422</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8419,10 +8416,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>422</v>
+      </c>
+      <c r="F232" t="s">
         <v>423</v>
-      </c>
-      <c r="F232" t="s">
-        <v>424</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8448,10 +8445,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>424</v>
+      </c>
+      <c r="F233" t="s">
         <v>425</v>
-      </c>
-      <c r="F233" t="s">
-        <v>426</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8477,10 +8474,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>426</v>
+      </c>
+      <c r="F234" t="s">
         <v>427</v>
-      </c>
-      <c r="F234" t="s">
-        <v>428</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8506,10 +8503,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>428</v>
+      </c>
+      <c r="F235" t="s">
         <v>429</v>
-      </c>
-      <c r="F235" t="s">
-        <v>430</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8535,10 +8532,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>430</v>
+      </c>
+      <c r="F236" t="s">
         <v>431</v>
-      </c>
-      <c r="F236" t="s">
-        <v>432</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8564,10 +8561,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>432</v>
+      </c>
+      <c r="F237" t="s">
         <v>433</v>
-      </c>
-      <c r="F237" t="s">
-        <v>434</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8593,10 +8590,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>434</v>
+      </c>
+      <c r="F238" t="s">
         <v>435</v>
-      </c>
-      <c r="F238" t="s">
-        <v>436</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8622,10 +8619,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>436</v>
+      </c>
+      <c r="F239" t="s">
         <v>437</v>
-      </c>
-      <c r="F239" t="s">
-        <v>438</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8651,10 +8648,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>438</v>
+      </c>
+      <c r="F240" t="s">
         <v>439</v>
-      </c>
-      <c r="F240" t="s">
-        <v>440</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8680,10 +8677,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>440</v>
+      </c>
+      <c r="F241" t="s">
         <v>441</v>
-      </c>
-      <c r="F241" t="s">
-        <v>442</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8709,10 +8706,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>442</v>
+      </c>
+      <c r="F242" t="s">
         <v>443</v>
-      </c>
-      <c r="F242" t="s">
-        <v>444</v>
       </c>
       <c r="G242" t="n">
         <v>4</v>
@@ -8738,10 +8735,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F243" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
